--- a/output/fit_clients/fit_round_270.xlsx
+++ b/output/fit_clients/fit_round_270.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2332788955.082186</v>
+        <v>1966401635.467848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08203984609836275</v>
+        <v>0.08295258207828246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0446428159670615</v>
+        <v>0.03937461231037132</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1166394517.964106</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1696072230.728961</v>
+        <v>2646382786.200231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1721347515503874</v>
+        <v>0.1321946574805575</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04990651458383211</v>
+        <v>0.04066220653942956</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>848036108.3478353</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3324206958.059965</v>
+        <v>4092512021.527608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1125971109251403</v>
+        <v>0.1321605181576701</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02585078177674113</v>
+        <v>0.02562554835834942</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1662103445.338691</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4069720007.697113</v>
+        <v>2645999856.885777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07637288651235886</v>
+        <v>0.09678464860017884</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04603120638227213</v>
+        <v>0.03119893737689293</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2034860002.956858</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2502952480.658807</v>
+        <v>2800558414.278775</v>
       </c>
       <c r="F6" t="n">
-        <v>0.138534325254453</v>
+        <v>0.1068154665134388</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05633998083226029</v>
+        <v>0.0567493533435082</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1251476215.489666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2188734721.795878</v>
+        <v>2655487110.871247</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09316344150698039</v>
+        <v>0.07386430250423386</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04838127223161655</v>
+        <v>0.03408724941043051</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1094367403.866363</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3303448629.758653</v>
+        <v>2580287535.00364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2085851140536497</v>
+        <v>0.1470592091248137</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02463926090119093</v>
+        <v>0.02187547736193366</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1651724403.412768</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1972085162.420952</v>
+        <v>1604508486.931542</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1399811548633952</v>
+        <v>0.1290215051242083</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03346181106496759</v>
+        <v>0.02434726794253343</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>986042611.6886744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4929504361.682611</v>
+        <v>3976579315.358351</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1331106362540937</v>
+        <v>0.1590372842943345</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05117244268596231</v>
+        <v>0.05314323619720215</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>114</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2464752274.672296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3870619374.932383</v>
+        <v>2794123214.55427</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1191600363150828</v>
+        <v>0.1182331117057762</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04796955043204928</v>
+        <v>0.0356715170142844</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>112</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1935309691.122533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2460212717.614367</v>
+        <v>2532685205.647794</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1614995072725991</v>
+        <v>0.1765274480750703</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05143389536433704</v>
+        <v>0.04047732091447314</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>92</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1230106327.39684</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3660651250.870905</v>
+        <v>3293168546.538512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07557864278814547</v>
+        <v>0.07586027104694085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02542229328574658</v>
+        <v>0.0234614335783367</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1830325697.599649</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3181491461.571837</v>
+        <v>3897931594.782392</v>
       </c>
       <c r="F14" t="n">
-        <v>0.155226315638627</v>
+        <v>0.1564149832338616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02823673681583353</v>
+        <v>0.03987316006919332</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>89</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1590745752.071184</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1182259116.702304</v>
+        <v>1240991490.617627</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1060332005358916</v>
+        <v>0.07787526277625212</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03571298362983263</v>
+        <v>0.03721271352294976</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>591129571.81311</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2714354955.708078</v>
+        <v>2308006363.916803</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07400513952375304</v>
+        <v>0.07405717822897549</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04415705924061323</v>
+        <v>0.05123121660159113</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1357177489.514847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4139933325.501334</v>
+        <v>4999713663.985766</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1463724806286237</v>
+        <v>0.1689903464394185</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03778479647631347</v>
+        <v>0.04209684362284622</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2069966690.380984</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2781493705.080222</v>
+        <v>3801234852.877979</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1682361538307511</v>
+        <v>0.1285244377053619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02900951590399894</v>
+        <v>0.03233855085194288</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1390746898.666492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1056594048.574964</v>
+        <v>1126510059.56011</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608774238464093</v>
+        <v>0.1454965894854174</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02439172179394222</v>
+        <v>0.02317444533427217</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>528297067.3283774</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1911333089.99174</v>
+        <v>2248280323.611231</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329513172706786</v>
+        <v>0.1190537879326781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02068631361536689</v>
+        <v>0.02037940364457209</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>955666580.7800791</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1714515923.062075</v>
+        <v>2174444837.122973</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08963694251510361</v>
+        <v>0.06561337365687808</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03683574390450834</v>
+        <v>0.03650266418468141</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>857258024.7860867</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3724812606.556355</v>
+        <v>2663282292.213592</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1154039182508043</v>
+        <v>0.1221861058507572</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0345505548739897</v>
+        <v>0.05091845192960089</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1862406321.401216</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1529164057.601712</v>
+        <v>1418266847.88444</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1536485584713064</v>
+        <v>0.1422184197450536</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05396971115732734</v>
+        <v>0.04008885534055444</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>764582009.8378816</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4039866905.398891</v>
+        <v>4135710508.653728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1481698432980828</v>
+        <v>0.09581294715894541</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03039762201477716</v>
+        <v>0.03292035691046144</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>79</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2019933417.990209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1211642642.738143</v>
+        <v>1071437191.071939</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1085086059590945</v>
+        <v>0.08364799114124219</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02571124672319649</v>
+        <v>0.02241509214487487</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>605821336.6524727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1458200978.782596</v>
+        <v>1177519632.299747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09588251286965872</v>
+        <v>0.1160807657347512</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03823622877495222</v>
+        <v>0.02628589581312653</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>729100573.5983276</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4313282051.517289</v>
+        <v>3030684344.779965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.136668170815618</v>
+        <v>0.1316419058575838</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01787444823066049</v>
+        <v>0.02093780958203268</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2156641020.34644</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2709487018.156905</v>
+        <v>2559353627.776147</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1041823019624093</v>
+        <v>0.1379322721659372</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03065473707403012</v>
+        <v>0.04618587037488033</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1354743495.104723</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4632844633.217622</v>
+        <v>3645188362.351794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0922074966359879</v>
+        <v>0.09552800871586785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03845433320598719</v>
+        <v>0.03928304043261728</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>119</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2316422289.648668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1647856077.168571</v>
+        <v>1836503130.298091</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1146720684272922</v>
+        <v>0.1189089237962589</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02647036909803019</v>
+        <v>0.03740532139890334</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>823928035.9089745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1345100158.966851</v>
+        <v>1324333041.199977</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07962462068530804</v>
+        <v>0.1083842602839979</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04263409388271284</v>
+        <v>0.03687837940861195</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>672549996.7919897</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1482058660.116041</v>
+        <v>1343160752.137406</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1154571068458082</v>
+        <v>0.1042612805995962</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02916775334556019</v>
+        <v>0.02991606217398362</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>741029394.7035217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1916921142.12763</v>
+        <v>3119288162.123465</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1995046941766366</v>
+        <v>0.1494444705966406</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0490623385959523</v>
+        <v>0.05611327745482912</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>83</v>
-      </c>
-      <c r="J33" t="n">
-        <v>958460658.9432967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1478922073.736857</v>
+        <v>1167861543.132147</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08553840434136538</v>
+        <v>0.1174323874804909</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02677927312156592</v>
+        <v>0.0265685885729053</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>739460996.2232856</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1108085513.786079</v>
+        <v>1286116244.559092</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07344443575663875</v>
+        <v>0.08602507407015812</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03516285049987627</v>
+        <v>0.03784970285196067</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>554042751.7634869</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2604774670.004907</v>
+        <v>2039251023.16465</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1446984558582216</v>
+        <v>0.1222359953968721</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02538764195930932</v>
+        <v>0.02333706576898616</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1302387348.591758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2195214627.451758</v>
+        <v>2016524196.126412</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08367377241638896</v>
+        <v>0.08516937648865093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03661681773576506</v>
+        <v>0.0265024291922128</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>71</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1097607367.863494</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1738184473.231363</v>
+        <v>2018375588.820814</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09117306430050577</v>
+        <v>0.114932445243876</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03178881983574065</v>
+        <v>0.02473487454989281</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>869092252.2214385</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1584803642.227222</v>
+        <v>1700316263.689457</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1710282996869846</v>
+        <v>0.1676465897772428</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03017375986842696</v>
+        <v>0.02329122929498003</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>792401878.6674964</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1143384593.71481</v>
+        <v>1763039221.03499</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1354771520083629</v>
+        <v>0.153685768756277</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04399496557270313</v>
+        <v>0.05435696696052646</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>571692352.3170247</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1840454558.256214</v>
+        <v>1920452045.585107</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1541285753973811</v>
+        <v>0.136264758791806</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04237252203461937</v>
+        <v>0.03538258996931013</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>66</v>
-      </c>
-      <c r="J41" t="n">
-        <v>920227368.9328334</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3129581600.222124</v>
+        <v>2785878873.537317</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1076802290490961</v>
+        <v>0.1088671524767793</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04676450013831374</v>
+        <v>0.04576335880511096</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1564790769.453762</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3025991619.951355</v>
+        <v>2906642167.375114</v>
       </c>
       <c r="F43" t="n">
-        <v>0.19922549406975</v>
+        <v>0.1752829851990295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0256668169772049</v>
+        <v>0.02471160403497282</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>97</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1512995805.753597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1479426053.409584</v>
+        <v>2323417314.291063</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09048798092695753</v>
+        <v>0.0729255360626162</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02521902379901375</v>
+        <v>0.02665615303842223</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>739713029.1741254</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1569337279.24252</v>
+        <v>1615227249.601293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511315425238579</v>
+        <v>0.1236974639446253</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05338727468250518</v>
+        <v>0.03969457937042916</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>784668587.0565619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3665131114.778821</v>
+        <v>3521002604.09874</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1369594152871071</v>
+        <v>0.1724756482646604</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03752127811987979</v>
+        <v>0.05447701440601797</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>96</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1832565507.743578</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3382562716.766101</v>
+        <v>5102702346.851196</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1577376651314744</v>
+        <v>0.190602126746302</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03690660167374488</v>
+        <v>0.04298077301680912</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>72</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1691281322.522918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3931744892.471232</v>
+        <v>4301304978.812119</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09763907171514363</v>
+        <v>0.09231620145645303</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02421845051558339</v>
+        <v>0.02365370981230717</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1965872484.592547</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1920033052.864324</v>
+        <v>1410733747.550999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1768389841117321</v>
+        <v>0.1686485520824194</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03089132080150467</v>
+        <v>0.04024613968270255</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>960016493.1591618</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2785012011.425692</v>
+        <v>3848091356.114438</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1361789309470693</v>
+        <v>0.1202727881527181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05037518052626297</v>
+        <v>0.05338583466018664</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>92</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1392506080.827533</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1145225077.628281</v>
+        <v>961516907.1613543</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1421180019809781</v>
+        <v>0.1781658162788327</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03688022613965555</v>
+        <v>0.04973857182793628</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>572612599.2294995</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4515886355.23276</v>
+        <v>4361056865.43941</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1162917616125628</v>
+        <v>0.08629731759243288</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05285362952318826</v>
+        <v>0.03974255929829337</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>111</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2257943203.728059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2407182196.436738</v>
+        <v>2646716365.942478</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1472151969865593</v>
+        <v>0.134627728566332</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03256081153554229</v>
+        <v>0.02237468922382817</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>77</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1203591171.598768</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3919783265.394263</v>
+        <v>3662667238.932096</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1373765940765663</v>
+        <v>0.1305136498240737</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04172051360989302</v>
+        <v>0.04257456963847964</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>89</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1959891690.465707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3497701245.107913</v>
+        <v>4964326078.063046</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1358573447270582</v>
+        <v>0.1973082336693226</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02113277926673195</v>
+        <v>0.02170199291996361</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1748850575.27328</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1226815704.909044</v>
+        <v>1532592061.007854</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1127029514730413</v>
+        <v>0.1333079507584389</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03546709530893494</v>
+        <v>0.04153624900176101</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>613407935.1990169</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3201828721.870974</v>
+        <v>2880032295.463883</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1842515496644857</v>
+        <v>0.1196960284634932</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01929733825212126</v>
+        <v>0.01800353329151167</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>86</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1600914382.278669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1402173027.464704</v>
+        <v>1333569540.559384</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1411582779960364</v>
+        <v>0.1259166061673422</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03254370997786914</v>
+        <v>0.03662328813463588</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>701086553.7862086</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3284468562.87422</v>
+        <v>5342745822.241083</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08957406239359134</v>
+        <v>0.1108317190018367</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03644954296282273</v>
+        <v>0.03872224092236182</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>75</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1642234291.89285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2414079029.807499</v>
+        <v>2432431288.487246</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2044474438877174</v>
+        <v>0.1798214632031875</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02349551401984503</v>
+        <v>0.03086579067358948</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>84</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1207039523.790752</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2362433486.364862</v>
+        <v>2208985610.597753</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1491322208361202</v>
+        <v>0.1264657133781334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02238160854475684</v>
+        <v>0.02627121536608764</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>93</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1181216783.775131</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1448570110.688432</v>
+        <v>1703337214.569403</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1179732610483247</v>
+        <v>0.1303625631921631</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04608729083741799</v>
+        <v>0.04585002132173656</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>724285030.6905904</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5365562941.090762</v>
+        <v>5367468721.858124</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07981489365597</v>
+        <v>0.09242106366720657</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03033050008414686</v>
+        <v>0.03081096324212456</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2682781472.009543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4829587552.184952</v>
+        <v>4887817772.387656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1746340951376095</v>
+        <v>0.1414060030108964</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02704724371285547</v>
+        <v>0.03343593784144847</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>84</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2414793870.303252</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5083314361.447806</v>
+        <v>5743939355.078747</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1631532638030505</v>
+        <v>0.1281666291412727</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02908126609151419</v>
+        <v>0.01977793910695281</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2541657134.64527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4720156287.936323</v>
+        <v>4375823137.258817</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1138207960928326</v>
+        <v>0.1121639254083248</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04825462689422067</v>
+        <v>0.0350901887148161</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>79</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2360078156.132862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3384913347.379315</v>
+        <v>2506307242.021283</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08348133924125341</v>
+        <v>0.06640940577786404</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05112101699745285</v>
+        <v>0.04822105595651572</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1692456659.396799</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5873468011.651835</v>
+        <v>5281193720.181206</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1391901324542783</v>
+        <v>0.1388941620120823</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04874953524955682</v>
+        <v>0.0349875015113261</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2936734115.144254</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1545446538.256299</v>
+        <v>1636250698.155325</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1781930541432077</v>
+        <v>0.1377931160633922</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04458127704769107</v>
+        <v>0.05284103224489254</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>772723215.3053675</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3333749432.435092</v>
+        <v>2299066559.497006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06925504102890234</v>
+        <v>0.06653832342467626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03747332954753899</v>
+        <v>0.0490607328642989</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>77</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1666874714.9956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3437876234.791993</v>
+        <v>3535889046.168313</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1723337353635867</v>
+        <v>0.1284641123817385</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03144704395377905</v>
+        <v>0.02673199153286448</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>98</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1718938106.477971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1410297817.318771</v>
+        <v>1451011790.850103</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1071548279175121</v>
+        <v>0.06601525315880122</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04013219987928557</v>
+        <v>0.04982865946031914</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>705148950.0805273</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2436984297.071648</v>
+        <v>3150309430.689335</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07978242262011571</v>
+        <v>0.09755279434631586</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04656042243699995</v>
+        <v>0.0386874434859007</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>102</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1218492196.054068</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2515148826.853895</v>
+        <v>2544104638.338541</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1562596212986552</v>
+        <v>0.1430163542517952</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03312247887479939</v>
+        <v>0.02963488561959241</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>92</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1257574520.732337</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2306120635.854561</v>
+        <v>1578965842.894762</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1494695937187058</v>
+        <v>0.1395852151493122</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03561488209681703</v>
+        <v>0.02773389335573005</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1153060253.411156</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4153727461.846269</v>
+        <v>3686800332.90921</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1145016405631373</v>
+        <v>0.1127125881253788</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02912470507062978</v>
+        <v>0.03063881585551573</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2076863722.108098</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2127965836.810678</v>
+        <v>1420615510.286674</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1804781121814221</v>
+        <v>0.1641931182902194</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02364199744394871</v>
+        <v>0.02454978814518317</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1063982998.852919</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3433648160.331952</v>
+        <v>4457902272.993831</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1032105624945904</v>
+        <v>0.1110742693000586</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05463063158215256</v>
+        <v>0.04009184725303219</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>94</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1716824086.419995</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1332742593.257781</v>
+        <v>1790797032.545754</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1602043597668298</v>
+        <v>0.1725643125830519</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03454819549947345</v>
+        <v>0.02770281557630739</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>666371301.5893878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3871655698.412199</v>
+        <v>5328423953.465842</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08356977868609906</v>
+        <v>0.07397527055979358</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02897810622066127</v>
+        <v>0.02489531161910378</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>56</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1935827842.289261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4263179951.938579</v>
+        <v>4166971879.037942</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1177365014280759</v>
+        <v>0.1057125264014425</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02571990799770604</v>
+        <v>0.01997023581415546</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>63</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2131589948.960639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3977370921.360744</v>
+        <v>5311653527.412277</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1628167419431165</v>
+        <v>0.153869856699179</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0211492639609958</v>
+        <v>0.02263051126103673</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1988685501.694552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1596209750.045503</v>
+        <v>1655953814.482678</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1268268868389988</v>
+        <v>0.1412075368115708</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04489491900961852</v>
+        <v>0.04440972233448558</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>798104810.0740269</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1711768091.760556</v>
+        <v>2392912879.571227</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08761421065915781</v>
+        <v>0.0776381181463193</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03716586765309038</v>
+        <v>0.03857569035437273</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>855884093.0700401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2313647953.953341</v>
+        <v>2498083627.456567</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1850079959042985</v>
+        <v>0.1131884504602228</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0346210013327041</v>
+        <v>0.03843366986271946</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>102</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1156823961.369392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2046684132.017867</v>
+        <v>2470694841.813901</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1125667763085733</v>
+        <v>0.1177896310458124</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02538473636060836</v>
+        <v>0.01917368901392008</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1023342100.13463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1332485540.647267</v>
+        <v>984668648.3857489</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1419872437582924</v>
+        <v>0.1505812634937521</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03425776079958003</v>
+        <v>0.03063221738072136</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>666242859.8540289</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2882385066.095153</v>
+        <v>2635437305.791982</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1420083456628889</v>
+        <v>0.1475912292308612</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03122623043449969</v>
+        <v>0.03906971517149709</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>106</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1441192551.862103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3214024650.600587</v>
+        <v>2926587409.956708</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09747865032710358</v>
+        <v>0.100804256930706</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03635680322647919</v>
+        <v>0.03534400726354429</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>92</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1607012347.717691</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1439021330.017655</v>
+        <v>1487788814.02544</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1255114049577225</v>
+        <v>0.1383499262453239</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03503404491734704</v>
+        <v>0.03665764249456206</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>719510632.603738</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1973783165.145513</v>
+        <v>1418999683.476379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1281103634104211</v>
+        <v>0.1666898670465222</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05924525952532502</v>
+        <v>0.05007271812672092</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>986891558.3197588</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2390241298.587082</v>
+        <v>2393110140.569758</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1036808568358391</v>
+        <v>0.08483908786471571</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02914995317791963</v>
+        <v>0.03045647343771514</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>67</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1195120624.956982</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4420811254.714259</v>
+        <v>4292221980.081255</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1063006806407563</v>
+        <v>0.1309616221377852</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03721925332144718</v>
+        <v>0.04497561065893131</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2210405600.775563</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2258692527.60918</v>
+        <v>2258589004.891258</v>
       </c>
       <c r="F94" t="n">
-        <v>0.120032697036968</v>
+        <v>0.1075290387092896</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03346419496994706</v>
+        <v>0.04020605405996498</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1129346295.878738</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2614380561.286576</v>
+        <v>2193347354.914268</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1343360316173002</v>
+        <v>0.1081771165541195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04532546790276678</v>
+        <v>0.05141727435905444</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1307190308.405141</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2327699906.321926</v>
+        <v>2190156975.606324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1149964580492148</v>
+        <v>0.1244708785695412</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03218054697966435</v>
+        <v>0.03636599973151421</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1163849905.147899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5036865078.025796</v>
+        <v>5221469295.501409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1231322701404583</v>
+        <v>0.1077052944407147</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02758534039112237</v>
+        <v>0.02760755688274849</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>86</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2518432678.772092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2400925281.425811</v>
+        <v>3373402061.815833</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07858158944785947</v>
+        <v>0.1189580383605517</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02948119973873978</v>
+        <v>0.02936251627672738</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1200462584.754466</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3317444148.935942</v>
+        <v>2631478806.621401</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1118063545744317</v>
+        <v>0.1068235505340728</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03330465046030152</v>
+        <v>0.02258895233570675</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1658722083.461226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4708131860.309346</v>
+        <v>4692470305.6365</v>
       </c>
       <c r="F100" t="n">
-        <v>0.131614085989943</v>
+        <v>0.1794291638961411</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02156976843183281</v>
+        <v>0.02773980673303122</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2354066057.370795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2680991992.864825</v>
+        <v>2358753596.831981</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1629145485744318</v>
+        <v>0.1645043437495529</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05009819464475233</v>
+        <v>0.04391556610920448</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>108</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1340496043.332825</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_270.xlsx
+++ b/output/fit_clients/fit_round_270.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1966401635.467848</v>
+        <v>2464372179.928866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08295258207828246</v>
+        <v>0.09646976442532001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03937461231037132</v>
+        <v>0.03673275840333856</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2646382786.200231</v>
+        <v>1924068832.859346</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1321946574805575</v>
+        <v>0.1232413183670218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04066220653942956</v>
+        <v>0.04355153951528504</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4092512021.527608</v>
+        <v>4786012986.975151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1321605181576701</v>
+        <v>0.148505005318054</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02562554835834942</v>
+        <v>0.0273939400730238</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2645999856.885777</v>
+        <v>3500004103.030064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09678464860017884</v>
+        <v>0.1078529847995035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03119893737689293</v>
+        <v>0.04587892693857113</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2800558414.278775</v>
+        <v>2071612640.932104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068154665134388</v>
+        <v>0.09474654030447037</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0567493533435082</v>
+        <v>0.04168847013000677</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2655487110.871247</v>
+        <v>2635016439.897624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07386430250423386</v>
+        <v>0.07687627981752382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03408724941043051</v>
+        <v>0.04188755679540241</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2580287535.00364</v>
+        <v>2961958262.983896</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1470592091248137</v>
+        <v>0.1487517509159077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02187547736193366</v>
+        <v>0.02464698436231311</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1604508486.931542</v>
+        <v>2013542658.579791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1290215051242083</v>
+        <v>0.1846133097090333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02434726794253343</v>
+        <v>0.02264445655537781</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3976579315.358351</v>
+        <v>4169802867.045263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1590372842943345</v>
+        <v>0.1635795936683762</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05314323619720215</v>
+        <v>0.04732003789967953</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2794123214.55427</v>
+        <v>3934831207.524424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1182331117057762</v>
+        <v>0.1710672058139127</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0356715170142844</v>
+        <v>0.04474905009095706</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2532685205.647794</v>
+        <v>2287266956.506496</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1765274480750703</v>
+        <v>0.1248658884632329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04047732091447314</v>
+        <v>0.03405806332534549</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3293168546.538512</v>
+        <v>5085981460.570647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07586027104694085</v>
+        <v>0.06727904922449619</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0234614335783367</v>
+        <v>0.02434976638365051</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3897931594.782392</v>
+        <v>3185836808.962065</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1564149832338616</v>
+        <v>0.147421784440049</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03987316006919332</v>
+        <v>0.04282264763766019</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1240991490.617627</v>
+        <v>1835045883.72331</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07787526277625212</v>
+        <v>0.07982668288255584</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03721271352294976</v>
+        <v>0.03034115492306301</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2308006363.916803</v>
+        <v>2692681862.229063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07405717822897549</v>
+        <v>0.07248246949065994</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05123121660159113</v>
+        <v>0.03772811709058722</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4999713663.985766</v>
+        <v>4530675030.059173</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1689903464394185</v>
+        <v>0.1055447131523411</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04209684362284622</v>
+        <v>0.03764158114172413</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3801234852.877979</v>
+        <v>3870984791.952883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1285244377053619</v>
+        <v>0.1508131618986968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03233855085194288</v>
+        <v>0.03040130167065264</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1126510059.56011</v>
+        <v>908104664.7465479</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1454965894854174</v>
+        <v>0.1293685986056349</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02317444533427217</v>
+        <v>0.0257527205979685</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2248280323.611231</v>
+        <v>2269663410.177628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1190537879326781</v>
+        <v>0.1307206309776868</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02037940364457209</v>
+        <v>0.02050292724584257</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2174444837.122973</v>
+        <v>2715681293.374757</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06561337365687808</v>
+        <v>0.0760605171173524</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03650266418468141</v>
+        <v>0.03942060897368548</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2663282292.213592</v>
+        <v>2483917729.613621</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221861058507572</v>
+        <v>0.1445316489977706</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05091845192960089</v>
+        <v>0.04679148438761466</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1418266847.88444</v>
+        <v>1184930905.563877</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1422184197450536</v>
+        <v>0.1724689497691131</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04008885534055444</v>
+        <v>0.0461664891498406</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4135710508.653728</v>
+        <v>4028822367.438166</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09581294715894541</v>
+        <v>0.1136654422464082</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03292035691046144</v>
+        <v>0.02809301076461913</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1071437191.071939</v>
+        <v>902639223.5510159</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08364799114124219</v>
+        <v>0.07875085764496051</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02241509214487487</v>
+        <v>0.02331879353751404</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1177519632.299747</v>
+        <v>1082738022.046061</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1160807657347512</v>
+        <v>0.08289281143919172</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02628589581312653</v>
+        <v>0.03317959807491692</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3030684344.779965</v>
+        <v>4634335452.381513</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1316419058575838</v>
+        <v>0.1031149072890751</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02093780958203268</v>
+        <v>0.02525227241833141</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2559353627.776147</v>
+        <v>3643815905.020995</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1379322721659372</v>
+        <v>0.1462649594637918</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04618587037488033</v>
+        <v>0.03773970801137593</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3645188362.351794</v>
+        <v>5262008004.358623</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09552800871586785</v>
+        <v>0.1236565944172014</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03928304043261728</v>
+        <v>0.03113058727510524</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1836503130.298091</v>
+        <v>2301789107.91236</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189089237962589</v>
+        <v>0.08857496470415621</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03740532139890334</v>
+        <v>0.02964520651087188</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1324333041.199977</v>
+        <v>1029308851.49992</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1083842602839979</v>
+        <v>0.102011182672198</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03687837940861195</v>
+        <v>0.03611687917403131</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1343160752.137406</v>
+        <v>1674456370.363323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1042612805995962</v>
+        <v>0.07858322256767</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02991606217398362</v>
+        <v>0.03534522429695932</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3119288162.123465</v>
+        <v>1967144214.678879</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1494444705966406</v>
+        <v>0.1349061410203634</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05611327745482912</v>
+        <v>0.05654474112193127</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1167861543.132147</v>
+        <v>1321531177.023652</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1174323874804909</v>
+        <v>0.1107695633379908</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0265685885729053</v>
+        <v>0.02319924471195041</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286116244.559092</v>
+        <v>1247442413.300108</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08602507407015812</v>
+        <v>0.0843951209378066</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03784970285196067</v>
+        <v>0.02907095752849414</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2039251023.16465</v>
+        <v>2158211394.355409</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1222359953968721</v>
+        <v>0.1637368463369217</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02333706576898616</v>
+        <v>0.01857147333617412</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2016524196.126412</v>
+        <v>2736788256.604583</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08516937648865093</v>
+        <v>0.1041293476415016</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0265024291922128</v>
+        <v>0.02951560880815762</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2018375588.820814</v>
+        <v>1525821039.340442</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114932445243876</v>
+        <v>0.08064746929639416</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02473487454989281</v>
+        <v>0.02504423497083284</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1700316263.689457</v>
+        <v>2117764083.282143</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1676465897772428</v>
+        <v>0.1466977269779201</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02329122929498003</v>
+        <v>0.02811057890760646</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1763039221.03499</v>
+        <v>1396756124.661359</v>
       </c>
       <c r="F40" t="n">
-        <v>0.153685768756277</v>
+        <v>0.09957406044950856</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05435696696052646</v>
+        <v>0.05478523206274724</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1920452045.585107</v>
+        <v>2537452761.302196</v>
       </c>
       <c r="F41" t="n">
-        <v>0.136264758791806</v>
+        <v>0.127434550177377</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03538258996931013</v>
+        <v>0.04375424528654769</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2785878873.537317</v>
+        <v>3725381052.338017</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1088671524767793</v>
+        <v>0.07738374048202268</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04576335880511096</v>
+        <v>0.03102058846939799</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2906642167.375114</v>
+        <v>2821236776.979739</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1752829851990295</v>
+        <v>0.1847371784173724</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02471160403497282</v>
+        <v>0.01713005118063028</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2323417314.291063</v>
+        <v>1939595955.956243</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0729255360626162</v>
+        <v>0.07992561750421658</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02665615303842223</v>
+        <v>0.02938645413074348</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1615227249.601293</v>
+        <v>1926828030.521853</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1236974639446253</v>
+        <v>0.137599375337447</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03969457937042916</v>
+        <v>0.05089248331598344</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3521002604.09874</v>
+        <v>4496192945.541578</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1724756482646604</v>
+        <v>0.1549158368552438</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05447701440601797</v>
+        <v>0.05062998821218242</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5102702346.851196</v>
+        <v>5170204035.581211</v>
       </c>
       <c r="F47" t="n">
-        <v>0.190602126746302</v>
+        <v>0.1550135620930447</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04298077301680912</v>
+        <v>0.03956577513844642</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4301304978.812119</v>
+        <v>3234832562.927292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09231620145645303</v>
+        <v>0.1076082265883049</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02365370981230717</v>
+        <v>0.03760312543219414</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1410733747.550999</v>
+        <v>1704163027.127302</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1686485520824194</v>
+        <v>0.1282037550204362</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04024613968270255</v>
+        <v>0.03828653409401939</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3848091356.114438</v>
+        <v>3594864839.334575</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1202727881527181</v>
+        <v>0.1748165477579866</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05338583466018664</v>
+        <v>0.03720090155706116</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>961516907.1613543</v>
+        <v>1173362361.505441</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1781658162788327</v>
+        <v>0.1601609381399387</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04973857182793628</v>
+        <v>0.04819453988311422</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4361056865.43941</v>
+        <v>5103150665.244041</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08629731759243288</v>
+        <v>0.1046629240468572</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03974255929829337</v>
+        <v>0.05692797352740361</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2646716365.942478</v>
+        <v>2453436393.545293</v>
       </c>
       <c r="F53" t="n">
-        <v>0.134627728566332</v>
+        <v>0.1515786361954951</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02237468922382817</v>
+        <v>0.02328670281460404</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3662667238.932096</v>
+        <v>4485724180.640285</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1305136498240737</v>
+        <v>0.1275102675468993</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04257456963847964</v>
+        <v>0.03769699200918591</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4964326078.063046</v>
+        <v>3668233144.59125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1973082336693226</v>
+        <v>0.1877721903479771</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02170199291996361</v>
+        <v>0.03112746455645818</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532592061.007854</v>
+        <v>1532252744.78295</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1333079507584389</v>
+        <v>0.1313662199423268</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04153624900176101</v>
+        <v>0.05245258908067101</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2880032295.463883</v>
+        <v>3509700867.36658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1196960284634932</v>
+        <v>0.1763952326053695</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01800353329151167</v>
+        <v>0.02657791560351263</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1333569540.559384</v>
+        <v>1341702569.55514</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1259166061673422</v>
+        <v>0.1514304931379645</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03662328813463588</v>
+        <v>0.03981740188498987</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5342745822.241083</v>
+        <v>5304516769.838208</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1108317190018367</v>
+        <v>0.09138543179057654</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03872224092236182</v>
+        <v>0.04958869587080045</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2432431288.487246</v>
+        <v>2488880974.710021</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1798214632031875</v>
+        <v>0.1294699171399836</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03086579067358948</v>
+        <v>0.03014597946186711</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2208985610.597753</v>
+        <v>2263904625.99421</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1264657133781334</v>
+        <v>0.146281560365627</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02627121536608764</v>
+        <v>0.02614465288002212</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1703337214.569403</v>
+        <v>1870523889.290527</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1303625631921631</v>
+        <v>0.1792521163356882</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04585002132173656</v>
+        <v>0.03192950679292653</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5367468721.858124</v>
+        <v>4898621610.419027</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09242106366720657</v>
+        <v>0.0835821388676308</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03081096324212456</v>
+        <v>0.04221613519945657</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4887817772.387656</v>
+        <v>3947650657.391627</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1414060030108964</v>
+        <v>0.1505666940022246</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03343593784144847</v>
+        <v>0.03070117767673824</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5743939355.078747</v>
+        <v>4891311324.182322</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1281666291412727</v>
+        <v>0.1135895991132285</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01977793910695281</v>
+        <v>0.02258890958180034</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4375823137.258817</v>
+        <v>4159964824.085243</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1121639254083248</v>
+        <v>0.1204869931234216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0350901887148161</v>
+        <v>0.03813468434114845</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2506307242.021283</v>
+        <v>2120479164.443205</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06640940577786404</v>
+        <v>0.08923445055656687</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04822105595651572</v>
+        <v>0.04028604571175514</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5281193720.181206</v>
+        <v>4817753697.53136</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1388941620120823</v>
+        <v>0.1147716446177504</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0349875015113261</v>
+        <v>0.04284699106863307</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1636250698.155325</v>
+        <v>2334183650.56145</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1377931160633922</v>
+        <v>0.1686658913477736</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05284103224489254</v>
+        <v>0.0451637518836994</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2299066559.497006</v>
+        <v>2967294729.474896</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06653832342467626</v>
+        <v>0.08473378437283657</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0490607328642989</v>
+        <v>0.03266428276743712</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3535889046.168313</v>
+        <v>5420876679.398456</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1284641123817385</v>
+        <v>0.1551984323138611</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02673199153286448</v>
+        <v>0.02072697091801899</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1451011790.850103</v>
+        <v>2216443069.533276</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06601525315880122</v>
+        <v>0.06980013947465245</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04982865946031914</v>
+        <v>0.03399750155921092</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3150309430.689335</v>
+        <v>2386137580.544421</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09755279434631586</v>
+        <v>0.06829767204469786</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0386874434859007</v>
+        <v>0.04660388830904701</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2544104638.338541</v>
+        <v>3296860587.848679</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1430163542517952</v>
+        <v>0.1506629726821248</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02963488561959241</v>
+        <v>0.02271266204418151</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1578965842.894762</v>
+        <v>2395301113.701623</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1395852151493122</v>
+        <v>0.1617805188272569</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02773389335573005</v>
+        <v>0.03469788427004949</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3686800332.90921</v>
+        <v>3506208056.261544</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1127125881253788</v>
+        <v>0.08702199109196831</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03063881585551573</v>
+        <v>0.02462643976866339</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1420615510.286674</v>
+        <v>1505520362.402718</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1641931182902194</v>
+        <v>0.1826684973080014</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02454978814518317</v>
+        <v>0.02454430383967744</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4457902272.993831</v>
+        <v>4011853910.194855</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1110742693000586</v>
+        <v>0.08284466449603776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04009184725303219</v>
+        <v>0.04160011466855261</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1790797032.545754</v>
+        <v>1708519732.947443</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1725643125830519</v>
+        <v>0.1469189224965059</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02770281557630739</v>
+        <v>0.03261910333170578</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5328423953.465842</v>
+        <v>3516906596.725954</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07397527055979358</v>
+        <v>0.07188409079177693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02489531161910378</v>
+        <v>0.03827832137918918</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4166971879.037942</v>
+        <v>4960478044.840154</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1057125264014425</v>
+        <v>0.1058395426000764</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01997023581415546</v>
+        <v>0.02722712087355188</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5311653527.412277</v>
+        <v>4522529047.379685</v>
       </c>
       <c r="F82" t="n">
-        <v>0.153869856699179</v>
+        <v>0.1662197219329191</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02263051126103673</v>
+        <v>0.02069718166512632</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1655953814.482678</v>
+        <v>1834427229.099901</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1412075368115708</v>
+        <v>0.1571129288574807</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04440972233448558</v>
+        <v>0.03835083181092006</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2392912879.571227</v>
+        <v>2126537938.465039</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0776381181463193</v>
+        <v>0.09809662653463522</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03857569035437273</v>
+        <v>0.05122721219280216</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2498083627.456567</v>
+        <v>3379564281.041148</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1131884504602228</v>
+        <v>0.1556262684133618</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03843366986271946</v>
+        <v>0.05657551101613084</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2470694841.813901</v>
+        <v>2392870461.565933</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1177896310458124</v>
+        <v>0.1351852180962258</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01917368901392008</v>
+        <v>0.01889207222922846</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>984668648.3857489</v>
+        <v>1098439348.945224</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1505812634937521</v>
+        <v>0.1527228037134785</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03063221738072136</v>
+        <v>0.03097577627187194</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2635437305.791982</v>
+        <v>3330775685.447903</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1475912292308612</v>
+        <v>0.1509612054949565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03906971517149709</v>
+        <v>0.03603168123622631</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2926587409.956708</v>
+        <v>3117870702.898954</v>
       </c>
       <c r="F89" t="n">
-        <v>0.100804256930706</v>
+        <v>0.1264577524078447</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03534400726354429</v>
+        <v>0.04039854283580364</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1487788814.02544</v>
+        <v>2141458243.608068</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1383499262453239</v>
+        <v>0.1151855811670002</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03665764249456206</v>
+        <v>0.03820519665998193</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1418999683.476379</v>
+        <v>1838191586.682132</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1666898670465222</v>
+        <v>0.1712945164118458</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05007271812672092</v>
+        <v>0.04037648704997359</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2393110140.569758</v>
+        <v>1934018737.094095</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08483908786471571</v>
+        <v>0.08533444691902126</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03045647343771514</v>
+        <v>0.03433077149659701</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4292221980.081255</v>
+        <v>4633362467.839864</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1309616221377852</v>
+        <v>0.1025428546855295</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04497561065893131</v>
+        <v>0.04814020585931577</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2258589004.891258</v>
+        <v>1976255022.04207</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1075290387092896</v>
+        <v>0.1108103889447335</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04020605405996498</v>
+        <v>0.03927575512026342</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2193347354.914268</v>
+        <v>2716457890.792604</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1081771165541195</v>
+        <v>0.1314977321457873</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05141727435905444</v>
+        <v>0.0499691520444077</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2190156975.606324</v>
+        <v>1841094542.319881</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1244708785695412</v>
+        <v>0.1354114183814668</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03636599973151421</v>
+        <v>0.03063118289590883</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5221469295.501409</v>
+        <v>5274771040.233322</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1077052944407147</v>
+        <v>0.1416777466667108</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02760755688274849</v>
+        <v>0.02531396634684369</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3373402061.815833</v>
+        <v>2647054116.667971</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1189580383605517</v>
+        <v>0.09094537734868041</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02936251627672738</v>
+        <v>0.0314893216372617</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2631478806.621401</v>
+        <v>2141551499.36924</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1068235505340728</v>
+        <v>0.1149428178827947</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02258895233570675</v>
+        <v>0.02409904644588247</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4692470305.6365</v>
+        <v>4465540460.239039</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1794291638961411</v>
+        <v>0.1175817482728215</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02773980673303122</v>
+        <v>0.0233760564956145</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2358753596.831981</v>
+        <v>3206906437.57694</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1645043437495529</v>
+        <v>0.167247870883041</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04391556610920448</v>
+        <v>0.04596004745577055</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_270.xlsx
+++ b/output/fit_clients/fit_round_270.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2464372179.928866</v>
+        <v>2315561146.682812</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09646976442532001</v>
+        <v>0.1123320207473975</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03673275840333856</v>
+        <v>0.03742211581965835</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1924068832.859346</v>
+        <v>2459599802.365067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1232413183670218</v>
+        <v>0.1778139691672028</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04355153951528504</v>
+        <v>0.03719094100324941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4786012986.975151</v>
+        <v>3193681617.579233</v>
       </c>
       <c r="F4" t="n">
-        <v>0.148505005318054</v>
+        <v>0.1501362157852294</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0273939400730238</v>
+        <v>0.03753143527333332</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>145</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57.16294562266931</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3500004103.030064</v>
+        <v>2678987811.335392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1078529847995035</v>
+        <v>0.07670780091599526</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04587892693857113</v>
+        <v>0.04162628795563382</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2071612640.932104</v>
+        <v>2650222458.586904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09474654030447037</v>
+        <v>0.1175634977063161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04168847013000677</v>
+        <v>0.04459744421907079</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2635016439.897624</v>
+        <v>2733368710.552092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07687627981752382</v>
+        <v>0.08852461987790167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04188755679540241</v>
+        <v>0.03163461043744133</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2961958262.983896</v>
+        <v>3111679316.620173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1487517509159077</v>
+        <v>0.1949913098309771</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02464698436231311</v>
+        <v>0.0270846428420111</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>269</v>
+      </c>
+      <c r="K8" t="n">
+        <v>60.25078771804265</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2013542658.579791</v>
+        <v>2041716681.696425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1846133097090333</v>
+        <v>0.1601738152615848</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02264445655537781</v>
+        <v>0.03188590059308134</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4169802867.045263</v>
+        <v>4497494863.22765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1635795936683762</v>
+        <v>0.1981304655984025</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04732003789967953</v>
+        <v>0.03344884328733506</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>243</v>
+      </c>
+      <c r="J10" t="n">
+        <v>270</v>
+      </c>
+      <c r="K10" t="n">
+        <v>96.62296261434682</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3934831207.524424</v>
+        <v>2788996532.58779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1710672058139127</v>
+        <v>0.1644204478143404</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04474905009095706</v>
+        <v>0.04349126869157072</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2287266956.506496</v>
+        <v>2193777829.299784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1248658884632329</v>
+        <v>0.1562747383313229</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03405806332534549</v>
+        <v>0.03898325846632237</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5085981460.570647</v>
+        <v>5124615421.216057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06727904922449619</v>
+        <v>0.09595224965043321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02434976638365051</v>
+        <v>0.029637874146892</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>137</v>
+      </c>
+      <c r="J13" t="n">
+        <v>270</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3185836808.962065</v>
+        <v>3808627487.888175</v>
       </c>
       <c r="F14" t="n">
-        <v>0.147421784440049</v>
+        <v>0.1146959753966174</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04282264763766019</v>
+        <v>0.03016436170930194</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>54</v>
+      </c>
+      <c r="J14" t="n">
+        <v>270</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1835045883.72331</v>
+        <v>1328449182.096717</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07982668288255584</v>
+        <v>0.07233219265765557</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03034115492306301</v>
+        <v>0.04292539012060623</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2692681862.229063</v>
+        <v>2313048575.32359</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07248246949065994</v>
+        <v>0.1012174584462927</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03772811709058722</v>
+        <v>0.04276885141712482</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4530675030.059173</v>
+        <v>3276216431.265288</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1055447131523411</v>
+        <v>0.1249529262387067</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03764158114172413</v>
+        <v>0.05204685679615622</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>129</v>
+      </c>
+      <c r="J17" t="n">
+        <v>268</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3870984791.952883</v>
+        <v>3174222652.954917</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1508131618986968</v>
+        <v>0.1265522297874336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03040130167065264</v>
+        <v>0.03223903338319015</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>68</v>
+      </c>
+      <c r="J18" t="n">
+        <v>269</v>
+      </c>
+      <c r="K18" t="n">
+        <v>60.80735742935182</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>908104664.7465479</v>
+        <v>1280168069.423024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1293685986056349</v>
+        <v>0.1432151344220305</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0257527205979685</v>
+        <v>0.02375631945644061</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2269663410.177628</v>
+        <v>2622105504.968705</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1307206309776868</v>
+        <v>0.1182754025414415</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02050292724584257</v>
+        <v>0.03126625170873368</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2715681293.374757</v>
+        <v>2171895649.173797</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0760605171173524</v>
+        <v>0.09790536546647684</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03942060897368548</v>
+        <v>0.03783636120356621</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2483917729.613621</v>
+        <v>3454177777.879112</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1445316489977706</v>
+        <v>0.1287026569646562</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04679148438761466</v>
+        <v>0.05723050796938744</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70</v>
+      </c>
+      <c r="J22" t="n">
+        <v>270</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1184930905.563877</v>
+        <v>1139445537.991739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1724689497691131</v>
+        <v>0.1276914967111638</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0461664891498406</v>
+        <v>0.04657606056673914</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4028822367.438166</v>
+        <v>2859652708.01797</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1136654422464082</v>
+        <v>0.1194952487526399</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02809301076461913</v>
+        <v>0.02446468706664601</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>902639223.5510159</v>
+        <v>971129698.6229578</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07875085764496051</v>
+        <v>0.08383557154524104</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02331879353751404</v>
+        <v>0.01861596643966546</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1082738022.046061</v>
+        <v>1408238621.476139</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08289281143919172</v>
+        <v>0.08794521469388092</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03317959807491692</v>
+        <v>0.02369467696803429</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4634335452.381513</v>
+        <v>4070011911.867461</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1031149072890751</v>
+        <v>0.1194644912731159</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02525227241833141</v>
+        <v>0.02503181050469851</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>111</v>
+      </c>
+      <c r="J27" t="n">
+        <v>269</v>
+      </c>
+      <c r="K27" t="n">
+        <v>85.55676626399602</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3643815905.020995</v>
+        <v>3534841417.212755</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1462649594637918</v>
+        <v>0.1311689668252708</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03773970801137593</v>
+        <v>0.03055026061292225</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>270</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5262008004.358623</v>
+        <v>4200160135.75359</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1236565944172014</v>
+        <v>0.1322874602842831</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03113058727510524</v>
+        <v>0.04196077221931131</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>258</v>
+      </c>
+      <c r="J29" t="n">
+        <v>270</v>
+      </c>
+      <c r="K29" t="n">
+        <v>98.37861438223527</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2301789107.91236</v>
+        <v>2357185013.48704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08857496470415621</v>
+        <v>0.13497316242048</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02964520651087188</v>
+        <v>0.02419154836390879</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1029308851.49992</v>
+        <v>1241201230.153727</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102011182672198</v>
+        <v>0.07817574884835918</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03611687917403131</v>
+        <v>0.0521903361277374</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1674456370.363323</v>
+        <v>1153929875.237783</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07858322256767</v>
+        <v>0.09576477069774521</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03534522429695932</v>
+        <v>0.02638106972425231</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1967144214.678879</v>
+        <v>2052163301.072418</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1349061410203634</v>
+        <v>0.1714813043899308</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05654474112193127</v>
+        <v>0.05321671940747316</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1321531177.023652</v>
+        <v>1181133418.008434</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1107695633379908</v>
+        <v>0.1057721140727401</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02319924471195041</v>
+        <v>0.02743977527830187</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1247442413.300108</v>
+        <v>1263564576.413846</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0843951209378066</v>
+        <v>0.1160775985096558</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02907095752849414</v>
+        <v>0.02800539794094775</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2158211394.355409</v>
+        <v>2654910889.19068</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1637368463369217</v>
+        <v>0.1582407542747408</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01857147333617412</v>
+        <v>0.02109538923626512</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2736788256.604583</v>
+        <v>2919584683.241811</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041293476415016</v>
+        <v>0.09376060547939437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02951560880815762</v>
+        <v>0.03273152502020811</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1525821039.340442</v>
+        <v>1860363112.82806</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08064746929639416</v>
+        <v>0.09033622027442716</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02504423497083284</v>
+        <v>0.02479159973518498</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2117764083.282143</v>
+        <v>2203897441.710853</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1466977269779201</v>
+        <v>0.1714457914000339</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02811057890760646</v>
+        <v>0.01999794339045749</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1396756124.661359</v>
+        <v>1742631591.58167</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09957406044950856</v>
+        <v>0.139007576994512</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05478523206274724</v>
+        <v>0.03904955631235149</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2537452761.302196</v>
+        <v>1870741834.303052</v>
       </c>
       <c r="F41" t="n">
-        <v>0.127434550177377</v>
+        <v>0.1503990588712986</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04375424528654769</v>
+        <v>0.04047706763982088</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3725381052.338017</v>
+        <v>3836954109.369252</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07738374048202268</v>
+        <v>0.09025544723590687</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03102058846939799</v>
+        <v>0.03280690525509416</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>113</v>
+      </c>
+      <c r="J42" t="n">
+        <v>270</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2821236776.979739</v>
+        <v>1959347755.52708</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1847371784173724</v>
+        <v>0.1934275687965092</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01713005118063028</v>
+        <v>0.01580944695825542</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1939595955.956243</v>
+        <v>1507287235.191855</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07992561750421658</v>
+        <v>0.06440649991000962</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02938645413074348</v>
+        <v>0.03276864344013616</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1926828030.521853</v>
+        <v>1928052858.940158</v>
       </c>
       <c r="F45" t="n">
-        <v>0.137599375337447</v>
+        <v>0.1564147958641811</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05089248331598344</v>
+        <v>0.04224165357251838</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4496192945.541578</v>
+        <v>4096199400.129216</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1549158368552438</v>
+        <v>0.1196420651131593</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05062998821218242</v>
+        <v>0.05423677500943469</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>158</v>
+      </c>
+      <c r="J46" t="n">
+        <v>270</v>
+      </c>
+      <c r="K46" t="n">
+        <v>95.81269547761632</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5170204035.581211</v>
+        <v>4817945018.178761</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1550135620930447</v>
+        <v>0.1236688219433916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03956577513844642</v>
+        <v>0.05527663319617374</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>121</v>
+      </c>
+      <c r="J47" t="n">
+        <v>270</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3234832562.927292</v>
+        <v>4051064738.93483</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1076082265883049</v>
+        <v>0.08510607604211132</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03760312543219414</v>
+        <v>0.02706364183861818</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>133</v>
+      </c>
+      <c r="J48" t="n">
+        <v>270</v>
+      </c>
+      <c r="K48" t="n">
+        <v>100.0742219193735</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1704163027.127302</v>
+        <v>1383005942.034473</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1282037550204362</v>
+        <v>0.1769286906823156</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03828653409401939</v>
+        <v>0.03610192052987585</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3594864839.334575</v>
+        <v>3436874287.268588</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1748165477579866</v>
+        <v>0.1639087762272094</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03720090155706116</v>
+        <v>0.03977587339892614</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>87</v>
+      </c>
+      <c r="J50" t="n">
+        <v>268</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1173362361.505441</v>
+        <v>1292542458.317183</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1601609381399387</v>
+        <v>0.1466776687232111</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04819453988311422</v>
+        <v>0.03649671686528803</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5103150665.244041</v>
+        <v>4895924943.742746</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1046629240468572</v>
+        <v>0.1339594621980358</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05692797352740361</v>
+        <v>0.05174237468122073</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>171</v>
+      </c>
+      <c r="J52" t="n">
+        <v>269</v>
+      </c>
+      <c r="K52" t="n">
+        <v>91.69895402902068</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2453436393.545293</v>
+        <v>3542781064.367202</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1515786361954951</v>
+        <v>0.1547041342026244</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02328670281460404</v>
+        <v>0.02225824380726959</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
+        <v>270</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4485724180.640285</v>
+        <v>3638918912.255483</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1275102675468993</v>
+        <v>0.123168415687993</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03769699200918591</v>
+        <v>0.03307751600193001</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>143</v>
+      </c>
+      <c r="J54" t="n">
+        <v>269</v>
+      </c>
+      <c r="K54" t="n">
+        <v>76.36462488951518</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3668233144.59125</v>
+        <v>3509804224.817476</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1877721903479771</v>
+        <v>0.1772570768712558</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03112746455645818</v>
+        <v>0.03220454630032722</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>121</v>
+      </c>
+      <c r="J55" t="n">
+        <v>270</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532252744.78295</v>
+        <v>1803054801.949968</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1313662199423268</v>
+        <v>0.1013795894890892</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05245258908067101</v>
+        <v>0.0402824337065379</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3509700867.36658</v>
+        <v>3915200411.14301</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1763952326053695</v>
+        <v>0.1317313196171592</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02657791560351263</v>
+        <v>0.0249569026845914</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>108</v>
+      </c>
+      <c r="J57" t="n">
+        <v>270</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1341702569.55514</v>
+        <v>1658587831.166932</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1514304931379645</v>
+        <v>0.1774115270089668</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03981740188498987</v>
+        <v>0.03797431255013341</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5304516769.838208</v>
+        <v>5071344201.622708</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09138543179057654</v>
+        <v>0.1195167612250246</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04958869587080045</v>
+        <v>0.04683485206814524</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>130</v>
+      </c>
+      <c r="J59" t="n">
+        <v>270</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2488880974.710021</v>
+        <v>2532208939.081282</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1294699171399836</v>
+        <v>0.1679448749548283</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03014597946186711</v>
+        <v>0.02574505457964901</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2263904625.99421</v>
+        <v>2654786064.389951</v>
       </c>
       <c r="F61" t="n">
-        <v>0.146281560365627</v>
+        <v>0.1094968237849114</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02614465288002212</v>
+        <v>0.02059538909165009</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1870523889.290527</v>
+        <v>1592923689.229382</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1792521163356882</v>
+        <v>0.1359521136933387</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03192950679292653</v>
+        <v>0.03312245107223587</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4898621610.419027</v>
+        <v>4548457900.348166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0835821388676308</v>
+        <v>0.07122441859741557</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04221613519945657</v>
+        <v>0.03292992867099601</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>131</v>
+      </c>
+      <c r="J63" t="n">
+        <v>269</v>
+      </c>
+      <c r="K63" t="n">
+        <v>91.11219059344133</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3947650657.391627</v>
+        <v>4595732438.138859</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1505666940022246</v>
+        <v>0.1522064597814736</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03070117767673824</v>
+        <v>0.02575182137059244</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>133</v>
+      </c>
+      <c r="J64" t="n">
+        <v>269</v>
+      </c>
+      <c r="K64" t="n">
+        <v>93.62456225187131</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4891311324.182322</v>
+        <v>5595480035.241272</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1135895991132285</v>
+        <v>0.1734942136353328</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02258890958180034</v>
+        <v>0.02822356020401983</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>216</v>
+      </c>
+      <c r="J65" t="n">
+        <v>270</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4159964824.085243</v>
+        <v>5332252180.021272</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1204869931234216</v>
+        <v>0.1329616913288023</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03813468434114845</v>
+        <v>0.03336342685306722</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>133</v>
+      </c>
+      <c r="J66" t="n">
+        <v>270</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2120479164.443205</v>
+        <v>3060398413.313138</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08923445055656687</v>
+        <v>0.07233031741889902</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04028604571175514</v>
+        <v>0.04771001595374409</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4817753697.53136</v>
+        <v>4684035979.861612</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1147716446177504</v>
+        <v>0.09983888958932727</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04284699106863307</v>
+        <v>0.04847800155220684</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>139</v>
+      </c>
+      <c r="J68" t="n">
+        <v>269</v>
+      </c>
+      <c r="K68" t="n">
+        <v>95.26137661907057</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2334183650.56145</v>
+        <v>2350749500.023957</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1686658913477736</v>
+        <v>0.1495842134356254</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0451637518836994</v>
+        <v>0.04742305354665608</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2967294729.474896</v>
+        <v>3684196895.375854</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08473378437283657</v>
+        <v>0.0790028243934752</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03266428276743712</v>
+        <v>0.03947129664359542</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5420876679.398456</v>
+        <v>3717768183.160001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1551984323138611</v>
+        <v>0.1443870082785885</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02072697091801899</v>
+        <v>0.03189127710931342</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>204</v>
+      </c>
+      <c r="J71" t="n">
+        <v>269</v>
+      </c>
+      <c r="K71" t="n">
+        <v>79.22673791493685</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2216443069.533276</v>
+        <v>2054268453.357903</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06980013947465245</v>
+        <v>0.07263006693749405</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03399750155921092</v>
+        <v>0.04628860324334385</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2386137580.544421</v>
+        <v>3405179788.425402</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06829767204469786</v>
+        <v>0.09343248327020953</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04660388830904701</v>
+        <v>0.04016888036857896</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3296860587.848679</v>
+        <v>2555255361.400475</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1506629726821248</v>
+        <v>0.1159303557509521</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02271266204418151</v>
+        <v>0.02441128419175564</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2395301113.701623</v>
+        <v>1682896694.29196</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1617805188272569</v>
+        <v>0.1502624710704553</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03469788427004949</v>
+        <v>0.03436169357528784</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3506208056.261544</v>
+        <v>5191523355.649128</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08702199109196831</v>
+        <v>0.08800422363318382</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02462643976866339</v>
+        <v>0.02085056249994382</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>126</v>
+      </c>
+      <c r="J76" t="n">
+        <v>270</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1505520362.402718</v>
+        <v>2291528529.08653</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1826684973080014</v>
+        <v>0.1853684875228656</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02454430383967744</v>
+        <v>0.02527797437914115</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4011853910.194855</v>
+        <v>3036160904.356567</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08284466449603776</v>
+        <v>0.08979128880913272</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04160011466855261</v>
+        <v>0.03607968209718799</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>136</v>
+      </c>
+      <c r="J78" t="n">
+        <v>269</v>
+      </c>
+      <c r="K78" t="n">
+        <v>52.17599103963787</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1708519732.947443</v>
+        <v>1664621985.698481</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1469189224965059</v>
+        <v>0.1362224623438729</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03261910333170578</v>
+        <v>0.04005598024111007</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3516906596.725954</v>
+        <v>3859736119.294607</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07188409079177693</v>
+        <v>0.07050354307334049</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03827832137918918</v>
+        <v>0.03775088749930787</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>132</v>
+      </c>
+      <c r="J80" t="n">
+        <v>269</v>
+      </c>
+      <c r="K80" t="n">
+        <v>63.76958449026792</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4960478044.840154</v>
+        <v>3292173441.05545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1058395426000764</v>
+        <v>0.0924339765200376</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02722712087355188</v>
+        <v>0.03190784656136734</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>124</v>
+      </c>
+      <c r="J81" t="n">
+        <v>269</v>
+      </c>
+      <c r="K81" t="n">
+        <v>55.10504159934748</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4522529047.379685</v>
+        <v>4402149557.282295</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1662197219329191</v>
+        <v>0.1426402159185969</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02069718166512632</v>
+        <v>0.02658948314109774</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>201</v>
+      </c>
+      <c r="J82" t="n">
+        <v>270</v>
+      </c>
+      <c r="K82" t="n">
+        <v>96.49504177776183</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1834427229.099901</v>
+        <v>2129016717.889053</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1571129288574807</v>
+        <v>0.1244632519661398</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03835083181092006</v>
+        <v>0.03765906836527054</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2126537938.465039</v>
+        <v>1729525969.335521</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09809662653463522</v>
+        <v>0.1068801225359183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05122721219280216</v>
+        <v>0.03758579060358933</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3379564281.041148</v>
+        <v>3030430587.342104</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1556262684133618</v>
+        <v>0.140099696162474</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05657551101613084</v>
+        <v>0.05384327831646103</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2392870461.565933</v>
+        <v>2306429872.910322</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1351852180962258</v>
+        <v>0.127768065885707</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01889207222922846</v>
+        <v>0.0169454236443981</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1098439348.945224</v>
+        <v>1053092686.333709</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1527228037134785</v>
+        <v>0.1650092729648865</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03097577627187194</v>
+        <v>0.03808840973677789</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3330775685.447903</v>
+        <v>2610381393.491077</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1509612054949565</v>
+        <v>0.165379546709196</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03603168123622631</v>
+        <v>0.03721718037532804</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3117870702.898954</v>
+        <v>3249122659.546412</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1264577524078447</v>
+        <v>0.1547993387555447</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04039854283580364</v>
+        <v>0.0362626876133694</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2141458243.608068</v>
+        <v>1790635069.882956</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1151855811670002</v>
+        <v>0.1223759215161662</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03820519665998193</v>
+        <v>0.04111588541180315</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1838191586.682132</v>
+        <v>1480751373.923991</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1712945164118458</v>
+        <v>0.147602746874888</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04037648704997359</v>
+        <v>0.0427649842942165</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1934018737.094095</v>
+        <v>2979744625.068297</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08533444691902126</v>
+        <v>0.0964633632475875</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03433077149659701</v>
+        <v>0.03382723004623348</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4633362467.839864</v>
+        <v>4879509287.082047</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1025428546855295</v>
+        <v>0.09932707108821739</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04814020585931577</v>
+        <v>0.0455515004114905</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>118</v>
+      </c>
+      <c r="J93" t="n">
+        <v>269</v>
+      </c>
+      <c r="K93" t="n">
+        <v>94.59857385632425</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1976255022.04207</v>
+        <v>1827095286.250324</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1108103889447335</v>
+        <v>0.1046549937221453</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03927575512026342</v>
+        <v>0.03037781613884</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2716457890.792604</v>
+        <v>2272995480.853139</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1314977321457873</v>
+        <v>0.1070724799564381</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0499691520444077</v>
+        <v>0.03661134893066383</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1841094542.319881</v>
+        <v>1737682359.905203</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1354114183814668</v>
+        <v>0.09881024473789515</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03063118289590883</v>
+        <v>0.04454116091779241</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5274771040.233322</v>
+        <v>4329301192.45375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1416777466667108</v>
+        <v>0.1157791292630042</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02531396634684369</v>
+        <v>0.01870924167785981</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>133</v>
+      </c>
+      <c r="J97" t="n">
+        <v>270</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2647054116.667971</v>
+        <v>2535451678.012361</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09094537734868041</v>
+        <v>0.1090753561202054</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0314893216372617</v>
+        <v>0.0304807976852041</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2141551499.36924</v>
+        <v>2432261517.687358</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149428178827947</v>
+        <v>0.1237076279104508</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02409904644588247</v>
+        <v>0.03471335216318608</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4465540460.239039</v>
+        <v>4546972825.138768</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1175817482728215</v>
+        <v>0.1525079446786386</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0233760564956145</v>
+        <v>0.02398132616963991</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>114</v>
+      </c>
+      <c r="J100" t="n">
+        <v>269</v>
+      </c>
+      <c r="K100" t="n">
+        <v>94.24026871182875</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3206906437.57694</v>
+        <v>2906054816.272441</v>
       </c>
       <c r="F101" t="n">
-        <v>0.167247870883041</v>
+        <v>0.1597408960656524</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04596004745577055</v>
+        <v>0.05662930139077482</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+      <c r="J101" t="n">
+        <v>268</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
